--- a/data/processed/variaveis_rf.xlsx
+++ b/data/processed/variaveis_rf.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Coeficientes" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variáveis Random Forest" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Coeficientes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Variáveis Random Forest" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -463,7 +463,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3753435107457112</v>
+        <v>0.3753435107457114</v>
       </c>
     </row>
     <row r="4">
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3169490273087048</v>
+        <v>0.3169490273087054</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1444997380991717</v>
+        <v>0.1444997380991714</v>
       </c>
     </row>
     <row r="7">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1202234965869368</v>
+        <v>0.1202234965869369</v>
       </c>
     </row>
     <row r="8">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.04808152789854292</v>
+        <v>0.04808152789854259</v>
       </c>
     </row>
     <row r="9">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.03321194907852772</v>
+        <v>0.03321194907852781</v>
       </c>
     </row>
     <row r="10">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02986647110280554</v>
+        <v>0.0298664711028055</v>
       </c>
     </row>
     <row r="11">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02318194755767135</v>
+        <v>0.02318194755767139</v>
       </c>
     </row>
     <row r="12">
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02121147656497743</v>
+        <v>0.02121147656497785</v>
       </c>
     </row>
     <row r="13">
@@ -563,7 +563,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01578771069428755</v>
+        <v>0.01578771069428736</v>
       </c>
     </row>
     <row r="14">
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.008097181941464915</v>
+        <v>0.008097181941465019</v>
       </c>
     </row>
     <row r="15">
@@ -583,7 +583,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.006667561523986721</v>
+        <v>0.006667561523986603</v>
       </c>
     </row>
     <row r="16">
@@ -593,7 +593,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.003155689261944688</v>
+        <v>0.00315568926194491</v>
       </c>
     </row>
     <row r="17">
@@ -603,7 +603,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.002362348616369232</v>
+        <v>-0.002362348616369427</v>
       </c>
     </row>
     <row r="18">
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.003910097155828072</v>
+        <v>-0.003910097155827918</v>
       </c>
     </row>
     <row r="19">
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.005556390333914489</v>
+        <v>-0.005556390333914378</v>
       </c>
     </row>
     <row r="20">
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01786600240488877</v>
+        <v>-0.01786600240488889</v>
       </c>
     </row>
     <row r="21">
@@ -643,7 +643,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.03998759540000532</v>
+        <v>-0.03998759540000524</v>
       </c>
     </row>
     <row r="22">
@@ -653,7 +653,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.05830722232273353</v>
+        <v>-0.05830722232273368</v>
       </c>
     </row>
     <row r="23">
@@ -663,7 +663,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.06738377788827311</v>
+        <v>-0.06738377788827321</v>
       </c>
     </row>
     <row r="24">
@@ -683,7 +683,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.115860947540044</v>
+        <v>-0.1158609475400437</v>
       </c>
     </row>
     <row r="26">
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.1317320764505582</v>
+        <v>-0.131732076450558</v>
       </c>
     </row>
     <row r="27">
@@ -703,7 +703,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.2182448354926417</v>
+        <v>-0.2182448354926421</v>
       </c>
     </row>
   </sheetData>
@@ -744,7 +744,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.02173492612776184</v>
+        <v>-0.02173492612776207</v>
       </c>
     </row>
     <row r="3">
@@ -774,7 +774,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3095118358476509</v>
+        <v>0.3095118358476507</v>
       </c>
     </row>
     <row r="6">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8604967084231201</v>
+        <v>0.8604967084231206</v>
       </c>
     </row>
     <row r="7">
@@ -794,7 +794,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8854948093401984</v>
+        <v>0.885494809340199</v>
       </c>
     </row>
     <row r="8">
@@ -804,7 +804,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2009947235308775</v>
+        <v>0.2009947235308772</v>
       </c>
     </row>
     <row r="9">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.02598003973217151</v>
+        <v>-0.0259800397321716</v>
       </c>
     </row>
     <row r="10">
